--- a/Minutes/March Minutes.xlsx
+++ b/Minutes/March Minutes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dcfef833b97180/Documents/Masters/Group Project/Minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{857ECF8C-89A8-405E-A109-F38F4694C1DC}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{77B9B514-6390-4934-A60B-1BCF650D797B}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0403" sheetId="1" r:id="rId1"/>
     <sheet name="0503" sheetId="2" r:id="rId2"/>
     <sheet name="0903" sheetId="3" r:id="rId3"/>
     <sheet name="1103" sheetId="4" r:id="rId4"/>
+    <sheet name="1603" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>Date:</t>
   </si>
@@ -238,6 +239,33 @@
   </si>
   <si>
     <t xml:space="preserve">Uploaded data to teams from https://ourworldindata.org/literacy </t>
+  </si>
+  <si>
+    <t>Finalising</t>
+  </si>
+  <si>
+    <t>Basic version completed</t>
+  </si>
+  <si>
+    <t>Share survey with friends and family</t>
+  </si>
+  <si>
+    <t>Create focus group of family and friends that we can keep talking to as our project develops</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Become more familiar with the mean stack</t>
+  </si>
+  <si>
+    <t>Perhaps have the globe coming out of the book?</t>
+  </si>
+  <si>
+    <t>Wenda to start working on understanding back end</t>
+  </si>
+  <si>
+    <t>Hamza and Emily focussing on design, Stanni's job to implement it</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7EA062-B880-4773-A346-22BB14603185}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1408,7 +1436,246 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE552A-4884-427A-BB9F-7797B5C77C38}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44271</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60">
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066F314D42E70FB4F962E325C4CCF27EF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d0c5eb7680b22b55b1b53511c5c4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="282a6439-55bf-4e0c-8e7b-3c6254bfab40" xmlns:ns3="2154648b-c288-4c61-a630-f86fa10bab94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7837bdda419d93c8125662830abb78fc" ns2:_="" ns3:_="">
     <xsd:import namespace="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
@@ -1619,23 +1886,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,5 +1895,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
 </file>
--- a/Minutes/March Minutes.xlsx
+++ b/Minutes/March Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dcfef833b97180/Documents/Masters/Group Project/Minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{77B9B514-6390-4934-A60B-1BCF650D797B}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD1E30CE-AE04-4484-9E74-F7A694E5DC3C}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="5" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0403" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="0903" sheetId="3" r:id="rId3"/>
     <sheet name="1103" sheetId="4" r:id="rId4"/>
     <sheet name="1603" sheetId="5" r:id="rId5"/>
+    <sheet name="1703" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>Date:</t>
   </si>
@@ -266,6 +267,15 @@
   </si>
   <si>
     <t>Hamza and Emily focussing on design, Stanni's job to implement it</t>
+  </si>
+  <si>
+    <t>Complete stakeholder analysis</t>
+  </si>
+  <si>
+    <t>No new decisions</t>
+  </si>
+  <si>
+    <t>See Stakeholder Analysis document and Miro page (on GitHub and Teams)</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBE552A-4884-427A-BB9F-7797B5C77C38}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1660,22 +1670,194 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13397EF8-86FD-4770-99CE-E0DB81033163}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44272</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066F314D42E70FB4F962E325C4CCF27EF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d0c5eb7680b22b55b1b53511c5c4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="282a6439-55bf-4e0c-8e7b-3c6254bfab40" xmlns:ns3="2154648b-c288-4c61-a630-f86fa10bab94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7837bdda419d93c8125662830abb78fc" ns2:_="" ns3:_="">
     <xsd:import namespace="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
@@ -1886,8 +2068,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1895,5 +2092,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
 </file>
--- a/Minutes/March Minutes.xlsx
+++ b/Minutes/March Minutes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dcfef833b97180/Documents/Masters/Group Project/Minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD1E30CE-AE04-4484-9E74-F7A694E5DC3C}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE7CAB7C-DA67-4298-AD02-3E8C22E0FC19}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="5" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="6" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0403" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="1103" sheetId="4" r:id="rId4"/>
     <sheet name="1603" sheetId="5" r:id="rId5"/>
     <sheet name="1703" sheetId="6" r:id="rId6"/>
+    <sheet name="1803" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
   <si>
     <t>Date:</t>
   </si>
@@ -276,6 +277,21 @@
   </si>
   <si>
     <t>See Stakeholder Analysis document and Miro page (on GitHub and Teams)</t>
+  </si>
+  <si>
+    <t>Do the Docker workshop</t>
+  </si>
+  <si>
+    <t>This week or next</t>
+  </si>
+  <si>
+    <t>Gone over scoping of project (see document Scoping in Prototyping folder)</t>
+  </si>
+  <si>
+    <t>Feedback meeting booked for 31st March at 3.30pm</t>
+  </si>
+  <si>
+    <t>Technical focus more on front-end side than back-end</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13397EF8-86FD-4770-99CE-E0DB81033163}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1857,7 +1873,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA523AD-051A-4B3C-9110-76BFC5FE55BF}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="98.25" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="50.25" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="77.25" customHeight="1">
+      <c r="A17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="47.25" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" ht="66.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066F314D42E70FB4F962E325C4CCF27EF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d0c5eb7680b22b55b1b53511c5c4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="282a6439-55bf-4e0c-8e7b-3c6254bfab40" xmlns:ns3="2154648b-c288-4c61-a630-f86fa10bab94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7837bdda419d93c8125662830abb78fc" ns2:_="" ns3:_="">
     <xsd:import namespace="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
@@ -2068,23 +2304,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2092,5 +2313,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
 </file>
--- a/Minutes/March Minutes.xlsx
+++ b/Minutes/March Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dcfef833b97180/Documents/Masters/Group Project/Minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE7CAB7C-DA67-4298-AD02-3E8C22E0FC19}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E48653FD-BB80-453E-B1CA-A057B5355F83}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="6" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0403" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="1603" sheetId="5" r:id="rId5"/>
     <sheet name="1703" sheetId="6" r:id="rId6"/>
     <sheet name="1803" sheetId="7" r:id="rId7"/>
+    <sheet name="2303" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
   <si>
     <t>Date:</t>
   </si>
@@ -292,6 +293,24 @@
   </si>
   <si>
     <t>Technical focus more on front-end side than back-end</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Everyone to complete their relevant workshop</t>
+  </si>
+  <si>
+    <t>next week</t>
+  </si>
+  <si>
+    <t>Talked about timeline and what we need to be doing</t>
+  </si>
+  <si>
+    <t>Start report writing now</t>
+  </si>
+  <si>
+    <t>Technical development needs to be caught up</t>
   </si>
 </sst>
 </file>
@@ -1877,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA523AD-051A-4B3C-9110-76BFC5FE55BF}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2072,6 +2091,200 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A31576-0348-4769-94F4-B4C5073FD7A1}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90">
+      <c r="A7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="180">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90">
+      <c r="A9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,12 +2301,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066F314D42E70FB4F962E325C4CCF27EF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d0c5eb7680b22b55b1b53511c5c4fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="282a6439-55bf-4e0c-8e7b-3c6254bfab40" xmlns:ns3="2154648b-c288-4c61-a630-f86fa10bab94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7837bdda419d93c8125662830abb78fc" ns2:_="" ns3:_="">
     <xsd:import namespace="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
@@ -2304,14 +2511,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}"/>
 </file>
--- a/Minutes/March Minutes.xlsx
+++ b/Minutes/March Minutes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dcfef833b97180/Documents/Masters/Group Project/Minutes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{5646953A-9E23-4B9A-9E91-C63BB73B9A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E48653FD-BB80-453E-B1CA-A057B5355F83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFAC9125-259B-42A7-AEC6-59656AA86B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1305" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{593D935D-DF05-41ED-B4AC-13EBFE7AA417}"/>
   </bookViews>
   <sheets>
     <sheet name="0403" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="1703" sheetId="6" r:id="rId6"/>
     <sheet name="1803" sheetId="7" r:id="rId7"/>
     <sheet name="2303" sheetId="8" r:id="rId8"/>
+    <sheet name="3103" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="96">
   <si>
     <t>Date:</t>
   </si>
@@ -311,13 +312,31 @@
   </si>
   <si>
     <t>Technical development needs to be caught up</t>
+  </si>
+  <si>
+    <t>Start sprints</t>
+  </si>
+  <si>
+    <t>End of Easter</t>
+  </si>
+  <si>
+    <t>Had feedback meeting with Allison and Marceli, discussed idea and potential for further development past literacy rates</t>
+  </si>
+  <si>
+    <t>Spoke about aspect of timeline and how the globe will light up as time continues</t>
+  </si>
+  <si>
+    <t>Have one person more responsible for write up of report, everyone contributes their own technical expertise then the writer will go over and finess the style</t>
+  </si>
+  <si>
+    <t>Wenda to help with front end if there are gaps that need filling and back end is not too demanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,7 +773,7 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
@@ -763,7 +782,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +791,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,19 +800,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +821,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -811,7 +830,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="75">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -820,19 +839,19 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -843,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -854,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -865,19 +884,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="66.75" customHeight="1">
+    <row r="15" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -897,19 +916,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -918,7 +937,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="75">
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
@@ -926,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="135">
+    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
@@ -934,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>30</v>
       </c>
@@ -942,7 +961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90">
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
@@ -950,7 +969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
@@ -971,14 +990,14 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1006,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -996,19 +1015,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1036,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -1026,24 +1045,24 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="14"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1054,52 +1073,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="75">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="45">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1121,14 +1140,14 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1156,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,19 +1165,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1167,19 +1186,19 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1190,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -1201,7 +1220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
@@ -1223,19 +1242,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="225">
+    <row r="14" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>48</v>
       </c>
@@ -1244,24 +1263,24 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1283,14 +1302,14 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1318,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,19 +1327,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1348,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="75">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1338,7 +1357,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="45">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -1347,19 +1366,19 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -1381,7 +1400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -1414,7 +1433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
@@ -1425,19 +1444,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="90">
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>63</v>
       </c>
@@ -1448,26 +1467,26 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45">
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1489,14 +1508,14 @@
       <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1524,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1514,19 +1533,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1554,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -1546,7 +1565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -1557,7 +1576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
@@ -1568,7 +1587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1590,19 +1609,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60">
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
@@ -1635,7 +1654,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>72</v>
       </c>
@@ -1646,52 +1665,52 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="30">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" ht="45">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -1713,14 +1732,14 @@
       <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1748,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1738,19 +1757,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1778,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -1781,7 +1800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
@@ -1803,24 +1822,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>76</v>
       </c>
@@ -1842,38 +1861,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1901,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" ht="45">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>78</v>
       </c>
@@ -1900,14 +1919,14 @@
       <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1935,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1925,19 +1944,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1965,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -1968,7 +1987,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="98.25" customHeight="1">
+    <row r="8" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>70</v>
       </c>
@@ -1979,7 +1998,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="50.25" customHeight="1">
+    <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
@@ -1990,7 +2009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -2001,19 +2020,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
@@ -2035,52 +2054,52 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="77.25" customHeight="1">
+    <row r="17" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="47.25" customHeight="1">
+    <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="66.75" customHeight="1">
+    <row r="19" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
@@ -2089,7 +2108,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
     </row>
   </sheetData>
@@ -2101,18 +2120,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A31576-0348-4769-94F4-B4C5073FD7A1}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2140,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2130,19 +2149,19 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2170,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -2162,7 +2181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
@@ -2173,7 +2192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="180">
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>70</v>
       </c>
@@ -2184,7 +2203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>72</v>
       </c>
@@ -2195,19 +2214,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>85</v>
       </c>
@@ -2229,52 +2248,52 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2302,185 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727E1E4F-20F6-4BAB-96DC-7CBC124B377E}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>44278</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2292,12 +2488,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2512,19 +2705,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C442173E-CB06-4477-91A5-257B519F1064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="282a6439-55bf-4e0c-8e7b-3c6254bfab40"/>
+    <ds:schemaRef ds:uri="2154648b-c288-4c61-a630-f86fa10bab94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{554B47C3-3F6D-4003-832E-345C67DC1627}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCCBE95-A568-4A35-B9D0-DC8154115CD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>